--- a/medicine/Sexualité et sexologie/Alain_Marc_(écrivain)/Alain_Marc_(écrivain).xlsx
+++ b/medicine/Sexualité et sexologie/Alain_Marc_(écrivain)/Alain_Marc_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
+          <t>Alain_Marc_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Marc est un écrivain, poète, essayiste français, auteur de carnets, de mini récits et de plusieurs nouvelles né en 1959 à Beauvais. Il effectue également des lectures publiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
+          <t>Alain_Marc_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,24 +523,14 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès 1990 Alain Marc avance l'idée d'une poésie publique[1] qui lui vaudra un débat houleux notamment avec le poète Jean Rousselot.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1990 Alain Marc avance l'idée d'une poésie publique qui lui vaudra un débat houleux notamment avec le poète Jean Rousselot.
 Alors que personne à ce moment-là ne parle encore du « cri » en littérature, il rédige l’essai Écrire le cri qui deviendra son premier livre et marquera durablement quelques esprits.
 Ses publications permettent de dégager les différentes expressions des poésies (du cri à la beauté), du poème long (surtout existentiel - peut-on écrire la vie, la solitude, la "folie" ?), des textes érotiques proches de Bataille, de l’essai, notamment de société.
-Certains de ses poèmes sont traduits en allemand[2] et en picard[3]. Il a repris en septembre 2023 la direction de la collection « La Diagonale de l'écrivain » publiée par les éditions Douro[4].
-Quelques dates
-Dès 1990 en parallèle à des collaborations dans de petites revues il échange avec des écrivains et critiques sur sa création notamment avec Jacques Darras. À partir de 1992 il entretient une correspondance plus prolongée avec Bernard Noël, commence après la lecture du Journal de Kafka la rédaction d’un journal et collabore épisodiquement aux Lettres françaises. Échanges en 1994 avec Hubert Haddad.
-1994-1995 verra l’aboutissement d’un travail dirigé par Henri Meschonnic qui deviendra plusieurs années après Écrire le cri que soutiendra Pierre Bourgeade. Sous l’impulsion de Maurice Nadeau le journal est disséminé en différents essais et carnets. Échanges en parallèle avec Pierre Dhainaut, Jacques Gaucheron, Michel Deguy et Michel Chaillou jusqu'en 1996 et début de collaborations avec les revues le Bord de l’eau, Variable et Contre-Vox un temps hébergée chez HB éditions. 1997 voit le soutien de l'essai par Pierre Nora. Début de trois collaborations avec la revue Europe, collaboration à l'anthologie 101 poèmes contre le racisme et à la deuxième édition de Franck Venaille, l'Homme en guerre et début du cycle de lectures « Alain Marc lit (Houellebecq, Maïakovski, Fondane, Valet[5], Jouve, etc.) ».
-À la suite de la publication de ce premier livre, il échange avec Yves di Manno, Abdellatif Laâbi et Ernest Pignon-Ernest, rencontre les artistes Lucille Calmel et Christian Edziré Déquesnes, collabore à partir de 2002 à de nouvelles revues ou fanzines dont Passage d'encres, Ffwl, la Revue Commune, Singe et contacte Pierre Garnier. Lectures notamment pour Panthéâtre. En 2004 sort un premier numéro de revue sur son parcours.
-En 2005 il publie coup sur coup un livre de poésies contemporaines (Regards hallucinés) et un poème social (la Poitrine étranglée). Il collabore ensuite au site Poezibao et à la revue Balises
-De 2006 à 2017
-2006 concrétise les premiers essais d’édition en ligne (Écrivainsenligne) et d’édition confidentielle (Première impression). Plusieurs lectures. Collaboration à la revue Passages. 2007 marque la rencontre avec le jongleur Vincent de Lavenère qui débouchera sur une rencontre-performance[6], sur la composition de poèmes et d'une bande son[7] et sur le début de la collaboration avec le compositeur sonore Laurent Maza[8]. Collaboration à la revue Thauma
-Fin 2007 et fin 2008 voient la publication de deux autres livres qui élargissent encore le champ par le poème sur une œuvre d'art (En regard, sur Bertrand Créac’h) et par la nouvelle (Toute une vie). Spectacle « Alain Marc lit Pierre Garnier » au Théâtre du Beauvaisis[9] et lecture musicale de Toute une vie.
-Depuis 2009 il poursuit l'alternance entre édition confidentielle ou en ligne (revue Interlope, collection « Ré-apparitions ») et publique. Droit de réponse à Carole Darricarrère[10] et avec Philippe Guénin lettre ouverte à Poezibao. 2010 et 2011 voient donc la parution d'un essai sur l'œuvre de Bernard Noël auquel viennent s'ajouter deux publications aux éditions du Zaporogue, une collaboration au Tombeau pour les rares de Nicolas Rozier, le début de collaboration avec les collectifs Singularte et Kaokosmos, la diffusion d'un reportage sonore sur la poésie sur Arte radio. Publications en revues[11], lectures avec les Cohortes improbables, à la Halle Saint-Pierre, au Marché de la poésie.
-2012 marque une nouvelle étape au sein du livre d'artiste avec la réalisation de livres pauvres avec Aaron Clarke[12] et Max Partezana[13], de planches manuscrites pour la [14] galerie Alain Oudin et d'un livre d'artiste avec Joël Leick. Avec en 2013 une collaboration aux Cahiers Laure, un livre d'artiste avec Sausen Mustafova[15], plusieurs lectures notamment avec la comédienne brésilienne Gabriella Scheer[16],[17].
-En 2014 sort un CD de poésies sonores enregistrées et composées par Laurent Maza (Le Grand cycle de la vie ou l'odyssée humaine), également diffusé en livre audio (deux autres suivront). Nouvelle lecture « Alain Marc lit Pierre Garnier » parmi d'autres, nouveaux livres d'artistes manuscrits pour la collection Éric Coisel[18] et avec Max Partezana[13]. Sorti du livre En regard, sur Lino de Giuli et de l'essai Chroniques pour une poésie publique. Continuation depuis 2013 de la publication en revues[19]. En 2015 sort deux autres livres audios. Publications en revues[20] et lecture aux Rencontres parisiennes de la photographie contemporaine sur l'esplanade des Invalides.
-2016 voit une invitation pour une carte blanche au 1er festival Des mots, des rimes et des lyres de Gif-sur-Yvette, la sortie d'un deuxième numéro de revue sur son parcours, une autre lecture, la réalisation de cartes peintes et de livres d'artiste[21], un livre pauvre avec Ghislaine Lejard, des publications en ligne[22], la publication d'une préface et la sortie d'un livre audio sur Abdellatif Laâbi. En 2017 sort les Poésies non hallucinées avec des œuvres de Christian Jaccard. Publications en revues[23], nouvelle lecture visuelle et sonore « Alain Marc lit Pierre Garnier » pour l'inauguration du 2e festival Des mots, des rimes et des lyres de Gif-sur-Yvette, d'autres lectures publiques ainsi qu'une résidence sonore avec une première lecture musicale du CD Le Grand cycle de la vie ou l'odyssée humaine et la réalisation de nouveaux livres d'artistes/livres pauvres et livre-objet[24] avec première présentation et exposition rétrospective. Signatures notamment au Marché de la poésie et au festival Voix Vives de Méditerranée en Méditerranée de Sète.
+Certains de ses poèmes sont traduits en allemand et en picard. Il a repris en septembre 2023 la direction de la collection « La Diagonale de l'écrivain » publiée par les éditions Douro.
 </t>
         </is>
       </c>
@@ -539,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
+          <t>Alain_Marc_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,20 +556,108 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques dates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1990 en parallèle à des collaborations dans de petites revues il échange avec des écrivains et critiques sur sa création notamment avec Jacques Darras. À partir de 1992 il entretient une correspondance plus prolongée avec Bernard Noël, commence après la lecture du Journal de Kafka la rédaction d’un journal et collabore épisodiquement aux Lettres françaises. Échanges en 1994 avec Hubert Haddad.
+1994-1995 verra l’aboutissement d’un travail dirigé par Henri Meschonnic qui deviendra plusieurs années après Écrire le cri que soutiendra Pierre Bourgeade. Sous l’impulsion de Maurice Nadeau le journal est disséminé en différents essais et carnets. Échanges en parallèle avec Pierre Dhainaut, Jacques Gaucheron, Michel Deguy et Michel Chaillou jusqu'en 1996 et début de collaborations avec les revues le Bord de l’eau, Variable et Contre-Vox un temps hébergée chez HB éditions. 1997 voit le soutien de l'essai par Pierre Nora. Début de trois collaborations avec la revue Europe, collaboration à l'anthologie 101 poèmes contre le racisme et à la deuxième édition de Franck Venaille, l'Homme en guerre et début du cycle de lectures « Alain Marc lit (Houellebecq, Maïakovski, Fondane, Valet, Jouve, etc.) ».
+À la suite de la publication de ce premier livre, il échange avec Yves di Manno, Abdellatif Laâbi et Ernest Pignon-Ernest, rencontre les artistes Lucille Calmel et Christian Edziré Déquesnes, collabore à partir de 2002 à de nouvelles revues ou fanzines dont Passage d'encres, Ffwl, la Revue Commune, Singe et contacte Pierre Garnier. Lectures notamment pour Panthéâtre. En 2004 sort un premier numéro de revue sur son parcours.
+En 2005 il publie coup sur coup un livre de poésies contemporaines (Regards hallucinés) et un poème social (la Poitrine étranglée). Il collabore ensuite au site Poezibao et à la revue Balises
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques dates</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>De 2006 à 2017</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2006 concrétise les premiers essais d’édition en ligne (Écrivainsenligne) et d’édition confidentielle (Première impression). Plusieurs lectures. Collaboration à la revue Passages. 2007 marque la rencontre avec le jongleur Vincent de Lavenère qui débouchera sur une rencontre-performance, sur la composition de poèmes et d'une bande son et sur le début de la collaboration avec le compositeur sonore Laurent Maza. Collaboration à la revue Thauma
+Fin 2007 et fin 2008 voient la publication de deux autres livres qui élargissent encore le champ par le poème sur une œuvre d'art (En regard, sur Bertrand Créac’h) et par la nouvelle (Toute une vie). Spectacle « Alain Marc lit Pierre Garnier » au Théâtre du Beauvaisis et lecture musicale de Toute une vie.
+Depuis 2009 il poursuit l'alternance entre édition confidentielle ou en ligne (revue Interlope, collection « Ré-apparitions ») et publique. Droit de réponse à Carole Darricarrère et avec Philippe Guénin lettre ouverte à Poezibao. 2010 et 2011 voient donc la parution d'un essai sur l'œuvre de Bernard Noël auquel viennent s'ajouter deux publications aux éditions du Zaporogue, une collaboration au Tombeau pour les rares de Nicolas Rozier, le début de collaboration avec les collectifs Singularte et Kaokosmos, la diffusion d'un reportage sonore sur la poésie sur Arte radio. Publications en revues, lectures avec les Cohortes improbables, à la Halle Saint-Pierre, au Marché de la poésie.
+2012 marque une nouvelle étape au sein du livre d'artiste avec la réalisation de livres pauvres avec Aaron Clarke et Max Partezana, de planches manuscrites pour la  galerie Alain Oudin et d'un livre d'artiste avec Joël Leick. Avec en 2013 une collaboration aux Cahiers Laure, un livre d'artiste avec Sausen Mustafova, plusieurs lectures notamment avec la comédienne brésilienne Gabriella Scheer,.
+En 2014 sort un CD de poésies sonores enregistrées et composées par Laurent Maza (Le Grand cycle de la vie ou l'odyssée humaine), également diffusé en livre audio (deux autres suivront). Nouvelle lecture « Alain Marc lit Pierre Garnier » parmi d'autres, nouveaux livres d'artistes manuscrits pour la collection Éric Coisel et avec Max Partezana. Sorti du livre En regard, sur Lino de Giuli et de l'essai Chroniques pour une poésie publique. Continuation depuis 2013 de la publication en revues. En 2015 sort deux autres livres audios. Publications en revues et lecture aux Rencontres parisiennes de la photographie contemporaine sur l'esplanade des Invalides.
+2016 voit une invitation pour une carte blanche au 1er festival Des mots, des rimes et des lyres de Gif-sur-Yvette, la sortie d'un deuxième numéro de revue sur son parcours, une autre lecture, la réalisation de cartes peintes et de livres d'artiste, un livre pauvre avec Ghislaine Lejard, des publications en ligne, la publication d'une préface et la sortie d'un livre audio sur Abdellatif Laâbi. En 2017 sort les Poésies non hallucinées avec des œuvres de Christian Jaccard. Publications en revues, nouvelle lecture visuelle et sonore « Alain Marc lit Pierre Garnier » pour l'inauguration du 2e festival Des mots, des rimes et des lyres de Gif-sur-Yvette, d'autres lectures publiques ainsi qu'une résidence sonore avec une première lecture musicale du CD Le Grand cycle de la vie ou l'odyssée humaine et la réalisation de nouveaux livres d'artistes/livres pauvres et livre-objet avec première présentation et exposition rétrospective. Signatures notamment au Marché de la poésie et au festival Voix Vives de Méditerranée en Méditerranée de Sète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Livres publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Écrire le cri, Sade, Bataille, Maïakovski… (Sade, Jouve, Bataille, Maïakovski, Mansour, Giauque, Venaille, Laâbi, Calaferte, Noël, Guyotat[25]...), essai, préface de Pierre Bourgeade, l’Écarlate, 2000  (ISBN 978-2-910142-04-9)
-Regards hallucinés[26],[27], poésies &amp; notes, préface de Bernard Noël, Lanore, 2005  (ISBN 978-2-85157-265-3)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Écrire le cri, Sade, Bataille, Maïakovski… (Sade, Jouve, Bataille, Maïakovski, Mansour, Giauque, Venaille, Laâbi, Calaferte, Noël, Guyotat...), essai, préface de Pierre Bourgeade, l’Écarlate, 2000  (ISBN 978-2-910142-04-9)
+Regards hallucinés poésies &amp; notes, préface de Bernard Noël, Lanore, 2005  (ISBN 978-2-85157-265-3)
 la Poitrine étranglée, Poème pour les ouvriers, le Temps des cerises, 2005  (ISBN 978-2-84109-570-4)
-En regard, sur Bertrand Créac’h[28], poèmes &amp; photographies de sculptures et lavis de l'artiste, Dumerchez, 2007/2008  (ISBN 978-2-84791-080-3)
+En regard, sur Bertrand Créac’h, poèmes &amp; photographies de sculptures et lavis de l'artiste, Dumerchez, 2007/2008  (ISBN 978-2-84791-080-3)
 Toute une vie, nouvelles et autres textes, lettre de Pierre Garnier, Engelaere éditions, 2008/2009  (ISBN 978-2-917621-00-4)
 Bernard Noël, le Monde à vif, essai, le Temps des cerises, 2010  (ISBN 978-2-84109-835-4)
-En regard, sur Lino de Giuli[29], poèmes &amp; photographies de peintures et installations de l'artiste, Dumerchez, 2014/2015  (ISBN 978-2-84791-200-5)
+En regard, sur Lino de Giuli, poèmes &amp; photographies de peintures et installations de l'artiste, Dumerchez, 2014/2015  (ISBN 978-2-84791-200-5)
 Poésies non hallucinées, &amp; rescapées, éveillées, zen, poésies &amp; notes, avec des Anonymes calcinés de Christian Jaccard, collection de « la Galerie de l'Or du temps » no 73, éditions du Petit Véhicule, 2017  (ISBN 978-2-37145-562-7)
-En regard, sur Bernard Gabriel Lafabrie[30], poèmes &amp; portraits de l'artiste, Dumerchez, 2018  (ISBN 978-2-84791-209-8)
+En regard, sur Bernard Gabriel Lafabrie, poèmes &amp; portraits de l'artiste, Dumerchez, 2018  (ISBN 978-2-84791-209-8)
 De l'amour et autres, poésies &amp; notes, avec des œuvres du peintre Lawrence, collection de « la Galerie de l'Or du temps » no 148, éditions du Petit Véhicule, 2019  (ISBN 978-2-37145-569-6)
 De la profondeur (Antonin Artaud, Georges Bataille, Samuel Beckett, Tahar Ben Jelloun, Christian Bobin, Nina Bouraoui, Pierre Bourgeade, Jean-Paul Bourre, Louis Calaferte, Yaël Cange, Mohamed Choukri, Hélène Cixous, William Cliff, etc.), essai, Douro, 2021  (ISBN 978-2-492381-79-9)
 Polaroïds, Textes, poésies et instantanés, avec des peintures de Jean-Marc André, collection « Texte », Tinbad, 2022  (ISBN 979-1-09641544-1)
@@ -575,9 +665,43 @@
 Un certain goût d'opiniâtreté, Journal 1991-1996 précédé de Journal reconstitué, 1986-1991, Douro, 2022  (ISBN 978-2-38406073-3)
 La Littérature, À propos de, coll. « La diagonale de l'écrivain », Douro, 2023  (ISBN 978-2-384062-49-2)
 Du monde suivi de « ... la Vie se dégrade... » ou de quelques considérations actuelles et inactuelles, Oxybia, 2023  (ISBN 978-2-917873-57-1)
-Cette sorte d'évidence, poésies &amp; notes, avec un travail photographique de Patrice Masson, Tarmac, 2024  (ISBN 979-10-96556-69-4)
-Autres publications
-Méta mor phose ? 1 - la Porte du des / tin, Méta mor phose ? 2 - Écrire !, Méta mor phose ? 3 - À la recherche de l'arche perdue et Méta mor phose ? 4 - le Désir écartelé[27], poésie / théâtre, pré-édition Première impression, 2006 ; rééd. en un volume sous le titre Méta mor phose ?, Z4 Éditions, 2019  (ISBN 978-2-490595-32-7)
+Cette sorte d'évidence, poésies &amp; notes, avec un travail photographique de Patrice Masson, Tarmac, 2024  (ISBN 979-10-96556-69-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Livres publiés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Méta mor phose ? 1 - la Porte du des / tin, Méta mor phose ? 2 - Écrire !, Méta mor phose ? 3 - À la recherche de l'arche perdue et Méta mor phose ? 4 - le Désir écartelé, poésie / théâtre, pré-édition Première impression, 2006 ; rééd. en un volume sous le titre Méta mor phose ?, Z4 Éditions, 2019  (ISBN 978-2-490595-32-7)
 Solitude, poème à dire, collection « Ré-apparitions », supplément n⁰18 de la revue Passages, 2009
 le Monde la vie, poème(s) à dire, présentation de Sébastien Doubinsky, les Éditions du Zaporogue, 2010
 la Souffrance du monde (la Fin d'un siècle !, Monde &amp; solitudes et Sexe et pouvoir), poèmes à dire, présentation de Sébastien Doubinsky, les Éditions du Zaporogue, 2011
@@ -589,70 +713,143 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Livres d’artiste / Livres pauvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les trente premiers Livres d’artiste et livres pauvres ont fait l'objet d'une exposition rétrospective à la médiathèque de Beauvais en 2017.
-Livres d’artiste
-Livres d’artiste ou Livre-objet avec Joël Leick, Sausen Mustafova, Laurence Granger, Ghislaine Lejard, Valérie Thévenot, Brigitte Dusserre-Bresson, les ateliers de gravure de Limay et de Vernon, Christine Vandrisse, Alexandra Fontaine, avec la collection « Les Sentinelles de la nuit » des éditions du Petit Véhicule et les éditions Transignum de Wanda Mihuleac[31].
-Présence dans la Réserve des livres rares de la Bibliothèque nationale de France et à l’École Municipale d’Arts Plastiques de Limay.
-Livres pauvres
-Livres pauvres ou assimilés avec Aaron Clarke/Armand Dupuy[12], Max Partezana, Ghislaine Lejard, Laurence Granger, Dominique Crognier, Maria Desmée, Gerda Adelski, Muriel Baumgartner, Lookace Bamber/François Goalec et les éditions Index du typographe Laurent Né.
-Des livres pauvres ou assimilés sont conservés dans le fonds Daniel Leuwers du Prieuré Saint-Cosme / Demeure de Ronsard, dans la collection Armand Dupuy du fonds Bibart[32] et dans le fonds L3V de la galerie nomade MT-Galerie de Marie Thamin ayant rejoint le fonds Daniel Leuwers du Prieuré Saint-Cosme / Demeure de Ronsard, dans le fonds de la bibliothèque des arts décoratifs Forney, le fonds de la bibliothèque municipale de Belfort.
-Présence de planches manuscrites ou compositions dans le fonds de dotation Enseigne des Oudin[33] et dans la collection de l’éditeur Bernard Dumerchez.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trente premiers Livres d’artiste et livres pauvres ont fait l'objet d'une exposition rétrospective à la médiathèque de Beauvais en 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Livres d’artiste / Livres pauvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres d’artiste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Livres d’artiste ou Livre-objet avec Joël Leick, Sausen Mustafova, Laurence Granger, Ghislaine Lejard, Valérie Thévenot, Brigitte Dusserre-Bresson, les ateliers de gravure de Limay et de Vernon, Christine Vandrisse, Alexandra Fontaine, avec la collection « Les Sentinelles de la nuit » des éditions du Petit Véhicule et les éditions Transignum de Wanda Mihuleac.
+Présence dans la Réserve des livres rares de la Bibliothèque nationale de France et à l’École Municipale d’Arts Plastiques de Limay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Livres d’artiste / Livres pauvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres pauvres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Livres pauvres ou assimilés avec Aaron Clarke/Armand Dupuy, Max Partezana, Ghislaine Lejard, Laurence Granger, Dominique Crognier, Maria Desmée, Gerda Adelski, Muriel Baumgartner, Lookace Bamber/François Goalec et les éditions Index du typographe Laurent Né.
+Des livres pauvres ou assimilés sont conservés dans le fonds Daniel Leuwers du Prieuré Saint-Cosme / Demeure de Ronsard, dans la collection Armand Dupuy du fonds Bibart et dans le fonds L3V de la galerie nomade MT-Galerie de Marie Thamin ayant rejoint le fonds Daniel Leuwers du Prieuré Saint-Cosme / Demeure de Ronsard, dans le fonds de la bibliothèque des arts décoratifs Forney, le fonds de la bibliothèque municipale de Belfort.
+Présence de planches manuscrites ou compositions dans le fonds de dotation Enseigne des Oudin et dans la collection de l’éditeur Bernard Dumerchez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>CD / Livres audio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alain Marc - Laurent Maza[8], Le Grand cycle de la vie ou l'odyssée humaine, 14 poésies sonores, compositions sonores de Laurent Maza, co-production Première impression / Artis Facta, diffusé en livre audio par Book d'oreille, 2014  (EAN 9782353680054)
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alain Marc - Laurent Maza, Le Grand cycle de la vie ou l'odyssée humaine, 14 poésies sonores, compositions sonores de Laurent Maza, co-production Première impression / Artis Facta, diffusé en livre audio par Book d'oreille, 2014  (EAN 9782353680054)
 Alain Marc, Méta / mor / phose ? (enregistrement et création des interludes par Olivier Vasseur, studio le Labo, Beauvais, 2010), livre audio, production Première impression, diffusion Book d'oreille, 2014  (EAN 9782353680061)
 Alain Marc - André Véchot, Regards hallucinés, improvisations musicales d'André Véchot (première prise, Vincennes, 2006), production Première impression, diffusion Book d'oreille, 2014  (EAN 9782353680078)
 Alain Marc - Laurent Maza, Question de l'invisible, enregistrement voix seule suivi d'une composition sonore en deux temps et deux mouvements sur les dernières pages d'un poème de l'auteur (présentée dans la classe de composition électroacoustique et instrumentale de Christian Éloy au CNR Jacques Thibaud de Bordeaux en 2007 et 2010), production Première impression, diffusion Book d'oreille, 2015  (EAN 9782353680085)
@@ -662,183 +859,193 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Création radiophonique / reportage sonore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>« Où est la poésie ? Elle n'est pas dans le journal », Arte radio, mise en ligne le 16 novembre 2010[34]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>« Où est la poésie ? Elle n'est pas dans le journal », Arte radio, mise en ligne le 16 novembre 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Lectures publiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 parmi les principales :
-Rencontre avec Vincent de Lavenère (et Laurent Maza[8]) après une résidence de création[6], journées « Écoles, en piste ! » de la FFEC, Théâtre des Poissons / la Batoude, Frocourt, 2007
+Rencontre avec Vincent de Lavenère (et Laurent Maza) après une résidence de création, journées « Écoles, en piste ! » de la FFEC, Théâtre des Poissons / la Batoude, Frocourt, 2007
 Pierre Garnier et ses amis picards (lecture en picard avec Pierre Garnier, Lucien Suel, Christian Edziré Déquesnes, etc.), Galerie nationale de la Tapisserie / Festival picard Ches wèpes, Beauvais, 2007
 En regard, sur Bertrand Créac’h, lecture avec Serge Béchu au zarb et autre lecture, exposition des sculptures dans les jardins de l'Abbatiale de Saint-Leu d’Esserent dans le cadre des Journées européennes du patrimoine, 2008
-Alain Marc lit Pierre Garnier[9], lecture visuelle, mise en espace et ambiance sonore de Laurent Maza, avec une sculpture de  Bertrand Créac’h sur Pierre Garnier et Sylvaine De Buyst, Conseil régional de Picardie / Théâtre du beauvaisis, Beauvais, 2008 ; Comédie de Picardie (lecture collective), clôture Année Pierre Garnier du Conseil régional de Picardie, Amiens, 2009
+Alain Marc lit Pierre Garnier, lecture visuelle, mise en espace et ambiance sonore de Laurent Maza, avec une sculpture de  Bertrand Créac’h sur Pierre Garnier et Sylvaine De Buyst, Conseil régional de Picardie / Théâtre du beauvaisis, Beauvais, 2008 ; Comédie de Picardie (lecture collective), clôture Année Pierre Garnier du Conseil régional de Picardie, Amiens, 2009
 Lecture avec le contrebassiste Colin Mc Kellar autour des encres de Claude Nguyen (manifestation collective), Salon Adjuvance, Paris 9e, 2009
 Toute une vie, Lecture musicale, lecture avec Sylvaine De Buyst et Serge Béchu, semaine du livre sur le Grand laonnois dans le cadre de la Fête du livre de Merlieux, la Préface (APEX), Laon, 2009
 Lectures collectives avec les Cohortes improbables (avec Ivar Ch'Vavar et entre autres Marc Gerenton), Noyon, Amiens et Lavacquerie (les Esserres), 2010
-Lecture collective Tombeau pour les rares#2[35] (ouvrage de Nicolas Rozier), Halle Saint Pierre - Musée d'art brut et d'art singulier dans le cadre de la Périphérie du 28e Marché de la poésie, Paris 18e, 2010
+Lecture collective Tombeau pour les rares#2 (ouvrage de Nicolas Rozier), Halle Saint Pierre - Musée d'art brut et d'art singulier dans le cadre de la Périphérie du 28e Marché de la poésie, Paris 18e, 2010
 Lecture « 100 poètes + 100 artistes = 200 minutes de poésie » avec Nicolas Rozier, périphérie du Marché de la poésie, 2010
 Lecture collective avec le collectif Kaokosmos/Guénin-Kej, bar Cantada II / Cabaret du néant, Paris 11e, 2011
 Lecture collective Ondes parallèles : Serge Saunière - Bertrand Créac’h (avec Marianne Auricoste, Alain Blanc et Myriam Eck) en lien avec l'exposition au Musée d'art et d'histoire de Meudon et à la médiathèque, médiathèque de Meudon-la-Forêt, 2013
-Rencontre Gabriella Scheer - Alain Marc (poèmes d'auteurs brésiliens contemporains et de l'auteur)[17], l'Angora, Paris 11e, 2013
+Rencontre Gabriella Scheer - Alain Marc (poèmes d'auteurs brésiliens contemporains et de l'auteur), l'Angora, Paris 11e, 2013
 Lecture pour la sortie officielle d'En regard, sur Lino de Giuli devant des œuvres de l'artiste, communs du château de La Roche-Guyon, 2014
 Lectures avec Emmanuel Mailly aux Rencontres parisiennes de la photographie contemporaine, esplanade des Invalides, Paris 7e, 2015
 Carte blanche (après les interventions d'André Markowicz et de Carole Darricarrère), 1er festival Des mots, des rimes et des lyres, Gif-sur-Yvette, 2016
-Alain Marc lit Pierre Garnier[9], lecture visuelle, mise en espace et ambiance sonore de Laurent Maza, inauguration du 2e festival Des mots, des rimes et des lyres, Gif-sur-Yvette, 2017
-Lecture musicale performée et visuelle avec Laurent Maza du CD Le Grand cycle de la vie ou l'odyssée humaine avec un diaporama du peintre Lawrence, centre culturel de musiques actuelles et multimédia ASCA, Beauvais, 2017[36]
-Lecture performée des Poésies non hallucinées, &amp; Rescapées, éveillées, zen et quelques autres, festival Graines de mots, communs du château du Fayel, Le Fayel, Oise, 2018[37]
-Deux lectures performées des poèmes en picard avec le Poets'Band en liaison avec la revue La Passe, Théâtre des Blondes Ogresses,  Paris 18e, 2018[38]
+Alain Marc lit Pierre Garnier, lecture visuelle, mise en espace et ambiance sonore de Laurent Maza, inauguration du 2e festival Des mots, des rimes et des lyres, Gif-sur-Yvette, 2017
+Lecture musicale performée et visuelle avec Laurent Maza du CD Le Grand cycle de la vie ou l'odyssée humaine avec un diaporama du peintre Lawrence, centre culturel de musiques actuelles et multimédia ASCA, Beauvais, 2017
+Lecture performée des Poésies non hallucinées, &amp; Rescapées, éveillées, zen et quelques autres, festival Graines de mots, communs du château du Fayel, Le Fayel, Oise, 2018
+Deux lectures performées des poèmes en picard avec le Poets'Band en liaison avec la revue La Passe, Théâtre des Blondes Ogresses,  Paris 18e, 2018
 Lecture performée des Poésies non hallucinées, &amp; Rescapées, éveillées, zen relatives aux gravures et livres d'artistes présentés, exposition centre d'exposition les Réservoirs, Limay, 2019
 Trois lectures du récit Journal à deux voix au milieu des œuvres du peintre Emmanuel Rémia, Hors Lits 14, Beauvais, 2020
 Lecture performée en relation avec le thème « Jouvences », 8e festival de poésie sauvage, La Salvétat-sur-Agoût, 2021
-Lecture déambulée debout puis assis de la série de poèmes Toujours la vie ! au milieu de l'installation éponyme de l'artiste Alexandra Fontaine, galerie associative, Beauvais, 2021[39]
-Performance artistique, poétique, musicale et visuelle de deux heures avec Alexandra Fontaine, Emmanuel Mailly et Husain Alghajar, Journées de la lecture, Conservatoire de musique et de danse, Trappes, 2022[40]
+Lecture déambulée debout puis assis de la série de poèmes Toujours la vie ! au milieu de l'installation éponyme de l'artiste Alexandra Fontaine, galerie associative, Beauvais, 2021
+Performance artistique, poétique, musicale et visuelle de deux heures avec Alexandra Fontaine, Emmanuel Mailly et Husain Alghajar, Journées de la lecture, Conservatoire de musique et de danse, Trappes, 2022
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Exposition sonore / Installation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Regards autour de Paï Saï[7], bande son avec Laurent Maza[8], lecture des quatre poèmes, bruitages de jonglage et enregistrements du Laos, compagnie Chant de balles, exposition itinérante de 2007 à 2011
-Installation Toujours la vie ! d'Alexandra Fontaine (9 kakémonos, 1 paravent et 7 peintures) sur la suite de poèmes éponyme, galerie associative Beauvais, 2021[39]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Regards autour de Paï Saï, bande son avec Laurent Maza, lecture des quatre poèmes, bruitages de jonglage et enregistrements du Laos, compagnie Chant de balles, exposition itinérante de 2007 à 2011
+Installation Toujours la vie ! d'Alexandra Fontaine (9 kakémonos, 1 paravent et 7 peintures) sur la suite de poèmes éponyme, galerie associative Beauvais, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Autres compositions sonores</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Laurent Maza[8], « Ode à "Mer" de Pierre Garnier[41] », composition sonore à partir de la lecture d'une poésie spatialiste tirée du spectacle, 2008
-Laurent Maza, « Question de l'invisible "Automatismes"[41] », nouvelle composition, 2015</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Laurent Maza, « Ode à "Mer" de Pierre Garnier », composition sonore à partir de la lecture d'une poésie spatialiste tirée du spectacle, 2008
+Laurent Maza, « Question de l'invisible "Automatismes" », nouvelle composition, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Entretiens</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Entretien radiophonique minute avec Cordulla Mullerke à propos des manifestations du Printemps des poètes, MFM, antenne de Beauvais, 26 mars 1999 [écouter en ligne] 
-Débat avec le journaliste Cédric Soulet et le poète Denis Dormoy autour d'Écrire le cri, médiathèque de l'Espace culturel François Mitterrand, Beauvais, 24 novembre 2000[42]
+Débat avec le journaliste Cédric Soulet et le poète Denis Dormoy autour d'Écrire le cri, médiathèque de l'Espace culturel François Mitterrand, Beauvais, 24 novembre 2000
 Entretien avec Typhaine Letertre « Du manuscrit au livre : entre sphère privée et champ public. Entretien avec Alain Marc » (à partir d'Écrire le cri) [PDF], 6 mai 2002
 Entretien radiophonique avec Jehan Van Langhenhoven autour d'Écrire le cri, émission « Ondes de choc », Radio libertaire, 8 mars 2004
 Entretien avec Sabine Cauvez « le Cri et le sens », revue Singe n⁰04 « l'Archaïque », Maxéville, fin 2004
@@ -863,66 +1070,108 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Émission de radio</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Émission « Rudies' Back in Town » animée par Anna Rudy (sur les lectures publiques, CD, livres audio et enregistrements réalisés avec divers musiciens), Radio libertaire, dimanche 19 janvier 2020.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sur Alain Marc</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>dossiers
-Des araignées… au CRI, Travail d’Alain Marc (dir. Christian Edziré Déquesnes ; texte de Lucille Calmel et autres), collection « Gvaus ed tros », hors série revue BASEMENTS-Ffwl, Douai, 2004
-Alain MARC, Il n'y a pas d'écriture heureuse (entretiens et articles de Murielle Compère-Demarcy, lettre de Bernard Noël, etc.), « cahier d'arts et de littératures » Chiendents no 109, éditions du Petit Véhicule, Nantes, 2016
-articles
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>dossiers</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Des araignées… au CRI, Travail d’Alain Marc (dir. Christian Edziré Déquesnes ; texte de Lucille Calmel et autres), collection « Gvaus ed tros », hors série revue BASEMENTS-Ffwl, Douai, 2004
+Alain MARC, Il n'y a pas d'écriture heureuse (entretiens et articles de Murielle Compère-Demarcy, lettre de Bernard Noël, etc.), « cahier d'arts et de littératures » Chiendents no 109, éditions du Petit Véhicule, Nantes, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sur Alain Marc</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>articles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 sur les livres et les publications en revues
 Thibault Lemonde, note de lecture sur Écrire le cri, revue Europe « Antonin Artaud », n⁰873/874, janvier-février 2002
 Florence Trocmé, « Rencontre avec Alain Marc », Poezibao, 3 juillet 2005
@@ -970,46 +1219,185 @@
 Jean-Louis Rambour, « Alain Marc et Laurent Maza, Le grand Cycle de la vie ou l’odyssée humaine », site Recours au poème, mi-février 2015
 Murielle Compère-Demarcy, « Le grand cycle de la vie ou l’odyssée humaine, Alain Marc et Laurent Maza », site La Cause littéraire, 19 mai 2015
 Murielle Compère-Demarcy, « (Reportages et rencontres) Les créations sonores d'Alain Marc, par Murielle Compère-Demarcy », site Poezibao, 7 décembre 2020
-radio
-Présentation et lecture d'extraits de 'Polaroïds, Textes, poésies et instantanés par Cristina Esselbée et Ghislaine Verdier, émission « Ondes de choc », Radio libertaire, 27 juin 2022 [écouter en ligne]  (respectivement à partir de 12'37" et 1h11'00")
-performance théâtrale
-Compagnie Théâtre en l'air, performance théâtrale Écrire le cri, médiathèque centrale de Beauvais, novembre 2000[43]
-bande dessinée
-Laure N, « Bonjour monsieur le directeur ! » (d'après une nouvelle tirée de Toute une vie), site Artis Facta[44]
-chanson
-Chanson éponyme créée et interprétée par le chanteur nord beauvaisien Guy Nortier en 1984 à partir de la poésie « les Aiguilles le temps » [écouter en ligne]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sur Alain Marc</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Présentation et lecture d'extraits de 'Polaroïds, Textes, poésies et instantanés par Cristina Esselbée et Ghislaine Verdier, émission « Ondes de choc », Radio libertaire, 27 juin 2022 [écouter en ligne]  (respectivement à partir de 12'37" et 1h11'00")</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sur Alain Marc</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>performance théâtrale</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Compagnie Théâtre en l'air, performance théâtrale Écrire le cri, médiathèque centrale de Beauvais, novembre 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sur Alain Marc</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>bande dessinée</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Laure N, « Bonjour monsieur le directeur ! » (d'après une nouvelle tirée de Toute une vie), site Artis Facta</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sur Alain Marc</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>chanson</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chanson éponyme créée et interprétée par le chanteur nord beauvaisien Guy Nortier en 1984 à partir de la poésie « les Aiguilles le temps » [écouter en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Résidence, distinctions, invitations</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Bourse d'aide à la création de la ville de Beauvais 1997
 Invitation avec l'artiste Nicolas Rozier à la périphérie du Marché de la poésie 2010
-Retraite d'écriture au monastère de Saorge 2011[45]
+Retraite d'écriture au monastère de Saorge 2011
 Poète invité au 1er festival de poésie de Creil 2012 (avec Joël Leick et participation au festival de 2014
 Poète invité au festival de poésie Des mots, des rimes et des lyres de Gif-sur-Yvette 2016 et participation en 2017 (et 2019 pour un débat)
 Bourse d'aide à la création de la région Hauts-de-France 2017-2018
@@ -1019,33 +1407,35 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Alain_Marc_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Marc_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, il prend position contre le Passe sanitaire[46] et dirige avec l’écrivain Yves Charnet la mise en ligne d’une bibliothèque de textes[47].
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, il prend position contre le Passe sanitaire et dirige avec l’écrivain Yves Charnet la mise en ligne d’une bibliothèque de textes.
 </t>
         </is>
       </c>
